--- a/doc/esp32透传_开发计划_20200722.xlsx
+++ b/doc/esp32透传_开发计划_20200722.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,7 +452,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,7 +528,9 @@
       <c r="E4" s="3">
         <v>7.22</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>7.23</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -543,7 +546,9 @@
       <c r="D5" s="3">
         <v>7.23</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>7.23</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
